--- a/public/template/reports.xlsx
+++ b/public/template/reports.xlsx
@@ -16,12 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
-  <si>
-    <t>项目</t>
-  </si>
-  <si>
-    <t>广告宣传（消费）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+  <si>
+    <t>科室/项目</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>平台/地域/病种</t>
+  </si>
+  <si>
+    <t>消费</t>
   </si>
   <si>
     <t>展现量</t>
@@ -30,7 +36,7 @@
     <t>点击</t>
   </si>
   <si>
-    <t>总对话</t>
+    <t>总对话量</t>
   </si>
   <si>
     <t>有效对话</t>
@@ -48,10 +54,46 @@
     <t>深圳灰指甲</t>
   </si>
   <si>
-    <t>广州灰指甲</t>
+    <t>渠道</t>
+  </si>
+  <si>
+    <t>神马</t>
+  </si>
+  <si>
+    <t>搜狗</t>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>病种</t>
+  </si>
+  <si>
+    <t>灰指甲</t>
+  </si>
+  <si>
+    <t>甲沟炎</t>
+  </si>
+  <si>
+    <t>脚气</t>
   </si>
   <si>
     <t>精神科</t>
+  </si>
+  <si>
+    <t>抑郁症</t>
+  </si>
+  <si>
+    <t>精神分裂</t>
+  </si>
+  <si>
+    <t>失眠症</t>
   </si>
 </sst>
 </file>
@@ -59,12 +101,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,23 +123,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,6 +209,30 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,43 +245,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -166,53 +254,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,187 +291,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,17 +503,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,9 +526,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,10 +552,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -533,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,31 +602,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,111 +638,120 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,139 +1102,619 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6">
+        <v>100</v>
+      </c>
+      <c r="E2" s="6">
+        <v>50</v>
+      </c>
+      <c r="F2" s="6">
+        <v>30</v>
+      </c>
+      <c r="G2" s="6">
+        <v>20</v>
+      </c>
+      <c r="H2" s="6">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6">
+        <v>101</v>
+      </c>
+      <c r="E3" s="6">
+        <v>51</v>
+      </c>
+      <c r="F3" s="6">
+        <v>31</v>
+      </c>
+      <c r="G3" s="6">
+        <v>21</v>
+      </c>
+      <c r="H3" s="6">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
-        <v>222</v>
-      </c>
-      <c r="C2" s="2">
-        <v>111</v>
-      </c>
-      <c r="D2" s="2">
-        <v>55</v>
-      </c>
-      <c r="E2" s="2">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2">
-        <v>3</v>
+      <c r="J3" s="3">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
-        <v>223</v>
-      </c>
-      <c r="C3" s="2">
-        <v>112</v>
-      </c>
-      <c r="D3" s="2">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
-        <v>224</v>
-      </c>
-      <c r="C4" s="2">
-        <v>113</v>
-      </c>
-      <c r="D4" s="2">
-        <v>57</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6">
+        <v>360</v>
+      </c>
+      <c r="D4" s="6">
+        <v>102</v>
+      </c>
+      <c r="E4" s="6">
+        <v>52</v>
+      </c>
+      <c r="F4" s="6">
+        <v>32</v>
+      </c>
+      <c r="G4" s="6">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6">
+        <v>12</v>
+      </c>
+      <c r="I4" s="6">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6">
+        <v>360</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2">
-        <v>5</v>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/reports.xlsx
+++ b/public/template/reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12780"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>科室/项目</t>
   </si>
   <si>
+    <t>来源</t>
+  </si>
+  <si>
     <t>部门</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
     <t>深圳灰指甲</t>
   </si>
   <si>
+    <t>医疗网站</t>
+  </si>
+  <si>
     <t>渠道</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
   </si>
   <si>
     <t>失眠症</t>
+  </si>
+  <si>
+    <t>健康网站</t>
   </si>
 </sst>
 </file>
@@ -101,8 +110,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -123,16 +132,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,10 +162,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,48 +177,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,6 +201,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -229,8 +245,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,14 +268,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -258,14 +275,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -276,187 +285,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,21 +476,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -504,6 +498,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -528,7 +533,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,13 +562,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +596,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,27 +1090,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9" style="2"/>
+    <col min="1" max="2" width="18" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1135,124 +1144,136 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4">
+        <v>100</v>
+      </c>
+      <c r="H2" s="4">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4">
+        <v>10</v>
+      </c>
+      <c r="J2" s="4">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="4">
-        <v>50</v>
-      </c>
-      <c r="E2" s="4">
-        <v>30</v>
-      </c>
-      <c r="F2" s="4">
-        <v>100</v>
-      </c>
-      <c r="G2" s="4">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4">
         <v>51</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>31</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>101</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>21</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>11</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>9</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>8</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4">
         <v>360</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>52</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>32</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>102</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>22</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>12</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>10</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>9</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -1269,25 +1290,28 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="4">
         <v>0</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -1304,25 +1328,28 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="4">
         <v>0</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -1339,25 +1366,28 @@
       <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="4">
         <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1374,25 +1404,28 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -1409,60 +1442,66 @@
       <c r="I9" s="4">
         <v>0</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="4">
         <v>0</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4">
-        <v>0</v>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1479,26 +1518,29 @@
       <c r="I11" s="4">
         <v>0</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="4">
         <v>0</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4">
         <v>360</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
@@ -1514,25 +1556,28 @@
       <c r="I12" s="4">
         <v>0</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="4">
         <v>0</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -1549,25 +1594,28 @@
       <c r="I13" s="4">
         <v>0</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="4">
         <v>0</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4">
-        <v>0</v>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -1584,115 +1632,735 @@
       <c r="I14" s="4">
         <v>0</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="4">
         <v>0</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4">
+        <v>50</v>
+      </c>
+      <c r="F18" s="4">
+        <v>30</v>
+      </c>
+      <c r="G18" s="4">
+        <v>100</v>
+      </c>
+      <c r="H18" s="4">
+        <v>20</v>
+      </c>
+      <c r="I18" s="4">
+        <v>10</v>
+      </c>
+      <c r="J18" s="4">
+        <v>8</v>
+      </c>
+      <c r="K18" s="2">
+        <v>7</v>
+      </c>
+      <c r="L18" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="4">
+        <v>51</v>
+      </c>
+      <c r="F19" s="4">
+        <v>31</v>
+      </c>
+      <c r="G19" s="4">
+        <v>101</v>
+      </c>
+      <c r="H19" s="4">
+        <v>21</v>
+      </c>
+      <c r="I19" s="4">
+        <v>11</v>
+      </c>
+      <c r="J19" s="4">
+        <v>9</v>
+      </c>
+      <c r="K19" s="2">
+        <v>8</v>
+      </c>
+      <c r="L19" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4">
+        <v>360</v>
+      </c>
+      <c r="E20" s="4">
+        <v>52</v>
+      </c>
+      <c r="F20" s="4">
+        <v>32</v>
+      </c>
+      <c r="G20" s="4">
+        <v>102</v>
+      </c>
+      <c r="H20" s="4">
         <v>22</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="I20" s="4">
+        <v>12</v>
+      </c>
+      <c r="J20" s="4">
+        <v>10</v>
+      </c>
+      <c r="K20" s="2">
+        <v>9</v>
+      </c>
+      <c r="L20" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4">
+        <v>360</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
         <v>0</v>
       </c>
     </row>
